--- a/medicine/Enfance/Patrice_Wolf/Patrice_Wolf.xlsx
+++ b/medicine/Enfance/Patrice_Wolf/Patrice_Wolf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrice Wolf est un journaliste et chroniqueur littéraire de littérature jeunesse, ainsi qu'auteur, en parallèle de sa fonction de dirigeant d'entreprise, né à Paris le 19 octobre 1955.
 </t>
@@ -511,18 +523,125 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'un milieu modeste, il a fait des études de psychologie. 
-Journalisme et développement des transports en commun
-Entré à la SNCF en tant que journaliste à l'hebdomadaire La vie du rail, il fera presque toute sa carrière dans l'entreprise publique en devenant directeur d'agence Fret (1990-1994), attaché de presse à la direction de la communication (1995-1998) puis directeur de cabinet du directeur régional Centre Loire (1998-2006).  De 2007 à 2010, il dirigera Fil Bleu, régie de transports en commun tourangeaux, avant de rejoindre la direction des grands urbains du groupe Keolis (2010-2017)[1].
-Urbanisme, arts et engagement citoyen
-Patrice Wolf a été par ailleurs président du Polau, pôle Arts et Urbanisme, créé et dirigé par Maud Le Floch, de juin 2014 à juin 2018[2].
-De 2016 à 2020, il a été membre du Conseil de développement (CODEV) de Tours Métropole Val-de-Loire et a coanimé l'atelier Débat public avec Claude Ophèle, professeur de droit à l'Université de Tours[3].
-En avril 2024, Patrice Wolf est nommé co-président du CODEV de Tours Métropole Val de Loire pour 2 ans avec Justine Dubourg, entrepreneuse engagée et présidente de Touraine Women[4].
-Littérature jeunesse
-Parallèlement à sa vie professionnelle, il a créé en 1981 avec le comédien Gilles Laurent l’association Astéroïde[5], qui milite pour la promotion de la vie culturelle pour l'enfance et la jeunesse et qu'il présidera jusqu'en 1995. 
-Il a créé et co-animé avec Denis Cheissoux l’émission de radio « L’as-tu lu mon p’tit loup » sur France Inter, de 1987 à 2008[6]. En 2017, il a fait don de 18.000 albums jeunesse, issus de son expérience de chroniqueur, à la bibliothèque municipale de Tours. Celle ci, sous l'impulsion de Bérangère Rouchon-Borie, la responsable de la section jeunesse, a créé un Centre spécialisé en littérature jeunesse qui porte le nom de Centre Patrice Wolf[7],[1],[8],[9],[10],[11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Journalisme et développement des transports en commun</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entré à la SNCF en tant que journaliste à l'hebdomadaire La vie du rail, il fera presque toute sa carrière dans l'entreprise publique en devenant directeur d'agence Fret (1990-1994), attaché de presse à la direction de la communication (1995-1998) puis directeur de cabinet du directeur régional Centre Loire (1998-2006).  De 2007 à 2010, il dirigera Fil Bleu, régie de transports en commun tourangeaux, avant de rejoindre la direction des grands urbains du groupe Keolis (2010-2017).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Urbanisme, arts et engagement citoyen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrice Wolf a été par ailleurs président du Polau, pôle Arts et Urbanisme, créé et dirigé par Maud Le Floch, de juin 2014 à juin 2018.
+De 2016 à 2020, il a été membre du Conseil de développement (CODEV) de Tours Métropole Val-de-Loire et a coanimé l'atelier Débat public avec Claude Ophèle, professeur de droit à l'Université de Tours.
+En avril 2024, Patrice Wolf est nommé co-président du CODEV de Tours Métropole Val de Loire pour 2 ans avec Justine Dubourg, entrepreneuse engagée et présidente de Touraine Women.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrice_Wolf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à sa vie professionnelle, il a créé en 1981 avec le comédien Gilles Laurent l’association Astéroïde, qui milite pour la promotion de la vie culturelle pour l'enfance et la jeunesse et qu'il présidera jusqu'en 1995. 
+Il a créé et co-animé avec Denis Cheissoux l’émission de radio « L’as-tu lu mon p’tit loup » sur France Inter, de 1987 à 2008. En 2017, il a fait don de 18.000 albums jeunesse, issus de son expérience de chroniqueur, à la bibliothèque municipale de Tours. Celle ci, sous l'impulsion de Bérangère Rouchon-Borie, la responsable de la section jeunesse, a créé un Centre spécialisé en littérature jeunesse qui porte le nom de Centre Patrice Wolf.
 </t>
         </is>
       </c>
